--- a/2_Excel Basics for Data Analysis/W2_GettingStartwithUsingSpreadsheets/Personal_Monthly_Expenditure_Lab4.xlsx
+++ b/2_Excel Basics for Data Analysis/W2_GettingStartwithUsingSpreadsheets/Personal_Monthly_Expenditure_Lab4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sandipsahajoy/gitlab/IBMDeveloperSkillsNetwork-DA0130EN-SkillsNetwork/Hands-on Labs/Lab 4 - Simple use of functions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sheldonnnn/Documents/一些学习笔记/IBMDA/2_Excel Basics for Data Analysis/W2_GettingStartwithUsingSpreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799F44A5-E7D0-C449-BB08-FF6B52489AF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0300AD8F-80A1-4F4C-A86E-B39C4C4BB09B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="2360" windowWidth="29440" windowHeight="16820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expense - 2018" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Month</t>
   </si>
@@ -88,6 +88,27 @@
   </si>
   <si>
     <t>Dec</t>
+  </si>
+  <si>
+    <t>Totals</t>
+  </si>
+  <si>
+    <t>Monthly Total</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Medium</t>
   </si>
 </sst>
 </file>
@@ -95,9 +116,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +132,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -133,17 +160,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="17">
     <dxf>
       <font>
         <b val="0"/>
@@ -161,7 +193,221 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="166" formatCode="[$$-409]#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="[$$-409]#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="[$$-409]#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="[$$-409]#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="[$$-409]#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="[$$-409]#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="[$$-409]#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -335,167 +581,6 @@
     <dxf>
       <font>
         <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -561,16 +646,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AB075690-6493-4B96-8D1B-B29AB2D9E9A9}" name="Table6" displayName="Table6" ref="A1:G13" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:G13" xr:uid="{1C96BD00-98D9-4572-8F4A-F406BBA95AE3}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{0738465F-87B9-46AD-8314-585AF20E321C}" name="Month" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{639B5A90-C646-4312-A12B-90EBA415C5F3}" name="Housing" dataDxfId="5" totalsRowDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{AC863E34-6694-4292-A7E8-5D94B1D4B90E}" name="Bills &amp; Utilities" dataDxfId="4" totalsRowDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{7F96B093-000D-47C8-9B3D-9C6DC794A7DD}" name="Food &amp; Dining" dataDxfId="3" totalsRowDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{0D73BCA8-FF88-432A-8438-8D3C42615074}" name="Personal" dataDxfId="2" totalsRowDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{62ECB4B2-7FAC-4168-96E6-6A3296B9F2CB}" name="Auto &amp; Transport" dataDxfId="1" totalsRowDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{5C8E2143-EA5D-49A7-8A33-6E4F45D73494}" name="Health &amp; Fitness" dataDxfId="0" totalsRowDxfId="7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AB075690-6493-4B96-8D1B-B29AB2D9E9A9}" name="Table6" displayName="Table6" ref="A1:H19" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A1:H19" xr:uid="{1C96BD00-98D9-4572-8F4A-F406BBA95AE3}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{0738465F-87B9-46AD-8314-585AF20E321C}" name="Month" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{639B5A90-C646-4312-A12B-90EBA415C5F3}" name="Housing" dataDxfId="6" totalsRowDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{AC863E34-6694-4292-A7E8-5D94B1D4B90E}" name="Bills &amp; Utilities" dataDxfId="5" totalsRowDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{7F96B093-000D-47C8-9B3D-9C6DC794A7DD}" name="Food &amp; Dining" dataDxfId="4" totalsRowDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{0D73BCA8-FF88-432A-8438-8D3C42615074}" name="Personal" dataDxfId="3" totalsRowDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{62ECB4B2-7FAC-4168-96E6-6A3296B9F2CB}" name="Auto &amp; Transport" dataDxfId="2" totalsRowDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{5C8E2143-EA5D-49A7-8A33-6E4F45D73494}" name="Health &amp; Fitness" dataDxfId="1" totalsRowDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{96F4905F-D1F0-114D-8CAE-F471739680ED}" name="Monthly Total" dataDxfId="0" totalsRowDxfId="7">
+      <calculatedColumnFormula>SUM(B2:G2)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -873,10 +961,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -888,305 +976,690 @@
     <col min="5" max="5" width="12" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="H1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>800</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>210</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>400</v>
       </c>
-      <c r="E2" s="4">
-        <v>100</v>
-      </c>
-      <c r="F2" s="4">
-        <v>100</v>
-      </c>
-      <c r="G2" s="4">
+      <c r="E2" s="3">
+        <v>100</v>
+      </c>
+      <c r="F2" s="3">
+        <v>100</v>
+      </c>
+      <c r="G2" s="3">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="H2" s="4">
+        <f t="shared" ref="H2:H14" si="0">SUM(B2:G2)</f>
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>800</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>180</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>350</v>
       </c>
-      <c r="E3" s="4">
-        <v>100</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="E3" s="3">
+        <v>100</v>
+      </c>
+      <c r="F3" s="3">
         <v>125</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>70</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="H3" s="4">
+        <f t="shared" si="0"/>
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>800</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>170</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>420</v>
       </c>
-      <c r="E4" s="4">
-        <v>100</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="E4" s="3">
+        <v>100</v>
+      </c>
+      <c r="F4" s="3">
         <v>120</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="H4" s="4">
+        <f t="shared" si="0"/>
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>800</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>160</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>400</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>120</v>
       </c>
-      <c r="F5" s="4">
-        <v>100</v>
-      </c>
-      <c r="G5" s="4">
+      <c r="F5" s="3">
+        <v>100</v>
+      </c>
+      <c r="G5" s="3">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="H5" s="4">
+        <f t="shared" si="0"/>
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>800</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>150</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>420</v>
       </c>
-      <c r="E6" s="4">
-        <v>100</v>
-      </c>
-      <c r="F6" s="4">
-        <v>100</v>
-      </c>
-      <c r="G6" s="4">
+      <c r="E6" s="3">
+        <v>100</v>
+      </c>
+      <c r="F6" s="3">
+        <v>100</v>
+      </c>
+      <c r="G6" s="3">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="H6" s="4">
+        <f t="shared" si="0"/>
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>800</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>150</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>380</v>
       </c>
-      <c r="E7" s="4">
-        <v>100</v>
-      </c>
-      <c r="F7" s="4">
+      <c r="E7" s="3">
+        <v>100</v>
+      </c>
+      <c r="F7" s="3">
         <v>130</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="H7" s="4">
+        <f t="shared" si="0"/>
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>800</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>150</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>420</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>120</v>
       </c>
-      <c r="F8" s="4">
-        <v>100</v>
-      </c>
-      <c r="G8" s="4">
+      <c r="F8" s="3">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="H8" s="4">
+        <f t="shared" si="0"/>
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>800</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>150</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>420</v>
       </c>
-      <c r="E9" s="4">
-        <v>100</v>
-      </c>
-      <c r="F9" s="4">
-        <v>100</v>
-      </c>
-      <c r="G9" s="4">
+      <c r="E9" s="3">
+        <v>100</v>
+      </c>
+      <c r="F9" s="3">
+        <v>100</v>
+      </c>
+      <c r="G9" s="3">
         <v>80</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="H9" s="4">
+        <f t="shared" si="0"/>
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>800</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>150</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>400</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>120</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>110</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="H10" s="4">
+        <f t="shared" si="0"/>
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>800</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>170</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>420</v>
       </c>
-      <c r="E11" s="4">
-        <v>100</v>
-      </c>
-      <c r="F11" s="4">
-        <v>100</v>
-      </c>
-      <c r="G11" s="4">
+      <c r="E11" s="3">
+        <v>100</v>
+      </c>
+      <c r="F11" s="3">
+        <v>100</v>
+      </c>
+      <c r="G11" s="3">
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="H11" s="4">
+        <f t="shared" si="0"/>
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>800</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>200</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>390</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>120</v>
       </c>
-      <c r="F12" s="4">
-        <v>100</v>
-      </c>
-      <c r="G12" s="4">
+      <c r="F12" s="3">
+        <v>100</v>
+      </c>
+      <c r="G12" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="H12" s="4">
+        <f t="shared" si="0"/>
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>800</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>220</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>400</v>
       </c>
-      <c r="E13" s="4">
-        <v>100</v>
-      </c>
-      <c r="F13" s="4">
+      <c r="E13" s="3">
+        <v>100</v>
+      </c>
+      <c r="F13" s="3">
         <v>115</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>60</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="0"/>
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="4">
+        <f>SUBTOTAL(109,B2:B13)</f>
+        <v>9600</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" ref="C14:F14" si="1">SUBTOTAL(109,C2:C13)</f>
+        <v>2060</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="1"/>
+        <v>4820</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="1"/>
+        <v>1280</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="1"/>
+        <v>1300</v>
+      </c>
+      <c r="G14" s="4">
+        <f>SUBTOTAL(109,G2:G13)</f>
+        <v>760</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="0"/>
+        <v>19820</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="4">
+        <f>AVERAGE(B2:B13)</f>
+        <v>800</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" ref="C15:H15" si="2">AVERAGE(C2:C13)</f>
+        <v>171.66666666666666</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="2"/>
+        <v>401.66666666666669</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="2"/>
+        <v>106.66666666666667</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="2"/>
+        <v>108.33333333333333</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="2"/>
+        <v>63.333333333333336</v>
+      </c>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="4">
+        <f>MIN(B2:B15)</f>
+        <v>800</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" ref="C16:H16" si="3">MIN(C2:C15)</f>
+        <v>150</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="4">
+        <f>MAX(B2:B13)</f>
+        <v>800</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" ref="C17:G17" si="4">MAX(C2:C13)</f>
+        <v>220</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="4"/>
+        <v>420</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="4"/>
+        <v>130</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="7">
+        <f>COUNT(B2:B13)</f>
+        <v>12</v>
+      </c>
+      <c r="C18" s="7">
+        <f t="shared" ref="C18:H18" si="5">COUNT(C2:C13)</f>
+        <v>12</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="E18" s="7">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="F18" s="7">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="G18" s="7">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="4">
+        <f>MEDIAN(B2:B13)</f>
+        <v>800</v>
+      </c>
+      <c r="C19" s="4">
+        <f t="shared" ref="C19:H19" si="6">MEDIAN(C2:C13)</f>
+        <v>165</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="6"/>
+        <v>400</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="31" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="9">
+        <v>1</v>
+      </c>
+      <c r="B31" s="9" t="e">
+        <f>A16+A17</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="9">
+        <v>3</v>
+      </c>
+      <c r="B33" s="9">
+        <f>A31+A32</f>
+        <v>3</v>
+      </c>
+      <c r="C33" s="9">
+        <f>$A$31+$A$32</f>
+        <v>3</v>
+      </c>
+      <c r="D33" s="9">
+        <f>$A$31+$A32</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="9">
+        <v>4</v>
+      </c>
+      <c r="B34" s="9">
+        <f t="shared" ref="B34:B40" si="7">A32+A33</f>
+        <v>5</v>
+      </c>
+      <c r="C34" s="9">
+        <f t="shared" ref="C34:C40" si="8">$A$31+$A$32</f>
+        <v>3</v>
+      </c>
+      <c r="D34" s="9">
+        <f t="shared" ref="D34:D40" si="9">$A$31+$A33</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="9">
+        <v>5</v>
+      </c>
+      <c r="B35" s="9">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="C35" s="9">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D35" s="9">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="9">
+        <v>6</v>
+      </c>
+      <c r="B36" s="9">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="C36" s="9">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D36" s="9">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="9">
+        <v>7</v>
+      </c>
+      <c r="B37" s="9">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="C37" s="9">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D37" s="9">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="9">
+        <v>8</v>
+      </c>
+      <c r="B38" s="9">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="C38" s="9">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D38" s="9">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="9">
+        <v>9</v>
+      </c>
+      <c r="B39" s="9">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="C39" s="9">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D39" s="9">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="9">
+        <v>10</v>
+      </c>
+      <c r="B40" s="9">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="C40" s="9">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D40" s="9">
+        <f t="shared" si="9"/>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
